--- a/natmiOut/OldD0/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Cadm1-Cadm3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.737005983567757</v>
+        <v>0.873501</v>
       </c>
       <c r="H2">
-        <v>0.737005983567757</v>
+        <v>2.620503</v>
       </c>
       <c r="I2">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="J2">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>39.0214983205743</v>
+        <v>3.443291333333333</v>
       </c>
       <c r="N2">
-        <v>39.0214983205743</v>
+        <v>10.329874</v>
       </c>
       <c r="O2">
-        <v>0.9334499895719619</v>
+        <v>0.07497468122035157</v>
       </c>
       <c r="P2">
-        <v>0.9334499895719619</v>
+        <v>0.07497468122035157</v>
       </c>
       <c r="Q2">
-        <v>28.75907775004244</v>
+        <v>3.007718422958</v>
       </c>
       <c r="R2">
-        <v>28.75907775004244</v>
+        <v>27.069465806622</v>
       </c>
       <c r="S2">
-        <v>0.09390388650579837</v>
+        <v>0.008749120042588591</v>
       </c>
       <c r="T2">
-        <v>0.09390388650579837</v>
+        <v>0.008749120042588591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.737005983567757</v>
+        <v>0.873501</v>
       </c>
       <c r="H3">
-        <v>0.737005983567757</v>
+        <v>2.620503</v>
       </c>
       <c r="I3">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="J3">
-        <v>0.100598733252821</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.78202490670411</v>
+        <v>39.68460733333333</v>
       </c>
       <c r="N3">
-        <v>2.78202490670411</v>
+        <v>119.053822</v>
       </c>
       <c r="O3">
-        <v>0.06655001042803807</v>
+        <v>0.8640978924345524</v>
       </c>
       <c r="P3">
-        <v>0.06655001042803807</v>
+        <v>0.8640978924345523</v>
       </c>
       <c r="Q3">
-        <v>2.05036900267546</v>
+        <v>34.664544190274</v>
       </c>
       <c r="R3">
-        <v>2.05036900267546</v>
+        <v>311.9808977124659</v>
       </c>
       <c r="S3">
-        <v>0.006694846747022659</v>
+        <v>0.1008353228903832</v>
       </c>
       <c r="T3">
-        <v>0.006694846747022659</v>
+        <v>0.1008353228903832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.31217392180761</v>
+        <v>0.873501</v>
       </c>
       <c r="H4">
-        <v>0.31217392180761</v>
+        <v>2.620503</v>
       </c>
       <c r="I4">
-        <v>0.04261064603083185</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="J4">
-        <v>0.04261064603083185</v>
+        <v>0.1166943280075418</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.0214983205743</v>
+        <v>2.798156333333333</v>
       </c>
       <c r="N4">
-        <v>39.0214983205743</v>
+        <v>8.394469000000001</v>
       </c>
       <c r="O4">
-        <v>0.9334499895719619</v>
+        <v>0.06092742634509613</v>
       </c>
       <c r="P4">
-        <v>0.9334499895719619</v>
+        <v>0.06092742634509613</v>
       </c>
       <c r="Q4">
-        <v>12.18149416554275</v>
+        <v>2.444192355323</v>
       </c>
       <c r="R4">
-        <v>12.18149416554275</v>
+        <v>21.997731197907</v>
       </c>
       <c r="S4">
-        <v>0.03977490709313455</v>
+        <v>0.007109885074569991</v>
       </c>
       <c r="T4">
-        <v>0.03977490709313455</v>
+        <v>0.007109885074569991</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.31217392180761</v>
+        <v>0.327332</v>
       </c>
       <c r="H5">
-        <v>0.31217392180761</v>
+        <v>0.9819960000000001</v>
       </c>
       <c r="I5">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="J5">
-        <v>0.04261064603083185</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.78202490670411</v>
+        <v>3.443291333333333</v>
       </c>
       <c r="N5">
-        <v>2.78202490670411</v>
+        <v>10.329874</v>
       </c>
       <c r="O5">
-        <v>0.06655001042803807</v>
+        <v>0.07497468122035157</v>
       </c>
       <c r="P5">
-        <v>0.06655001042803807</v>
+        <v>0.07497468122035157</v>
       </c>
       <c r="Q5">
-        <v>0.8684756256922723</v>
+        <v>1.127099438722667</v>
       </c>
       <c r="R5">
-        <v>0.8684756256922723</v>
+        <v>10.143894948504</v>
       </c>
       <c r="S5">
-        <v>0.002835738937697298</v>
+        <v>0.003278607536546162</v>
       </c>
       <c r="T5">
-        <v>0.002835738937697298</v>
+        <v>0.003278607536546162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.27701556187312</v>
+        <v>0.327332</v>
       </c>
       <c r="H6">
-        <v>6.27701556187312</v>
+        <v>0.9819960000000001</v>
       </c>
       <c r="I6">
-        <v>0.8567906207163472</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="J6">
-        <v>0.8567906207163472</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>39.0214983205743</v>
+        <v>39.68460733333333</v>
       </c>
       <c r="N6">
-        <v>39.0214983205743</v>
+        <v>119.053822</v>
       </c>
       <c r="O6">
-        <v>0.9334499895719619</v>
+        <v>0.8640978924345524</v>
       </c>
       <c r="P6">
-        <v>0.9334499895719619</v>
+        <v>0.8640978924345523</v>
       </c>
       <c r="Q6">
-        <v>244.9385522058507</v>
+        <v>12.99004188763467</v>
       </c>
       <c r="R6">
-        <v>244.9385522058507</v>
+        <v>116.910376988712</v>
       </c>
       <c r="S6">
-        <v>0.799771195973029</v>
+        <v>0.03778659430539281</v>
       </c>
       <c r="T6">
-        <v>0.799771195973029</v>
+        <v>0.03778659430539281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.27701556187312</v>
+        <v>0.327332</v>
       </c>
       <c r="H7">
-        <v>6.27701556187312</v>
+        <v>0.9819960000000001</v>
       </c>
       <c r="I7">
-        <v>0.8567906207163472</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="J7">
-        <v>0.8567906207163472</v>
+        <v>0.04372952953158002</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.78202490670411</v>
+        <v>2.798156333333333</v>
       </c>
       <c r="N7">
-        <v>2.78202490670411</v>
+        <v>8.394469000000001</v>
       </c>
       <c r="O7">
-        <v>0.06655001042803807</v>
+        <v>0.06092742634509613</v>
       </c>
       <c r="P7">
-        <v>0.06655001042803807</v>
+        <v>0.06092742634509613</v>
       </c>
       <c r="Q7">
-        <v>17.46281363290031</v>
+        <v>0.9159261089026668</v>
       </c>
       <c r="R7">
-        <v>17.46281363290031</v>
+        <v>8.243334980124002</v>
       </c>
       <c r="S7">
-        <v>0.05701942474331811</v>
+        <v>0.002664327689641048</v>
       </c>
       <c r="T7">
-        <v>0.05701942474331811</v>
+        <v>0.002664327689641048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.284543666666667</v>
+      </c>
+      <c r="H8">
+        <v>18.853631</v>
+      </c>
+      <c r="I8">
+        <v>0.8395761424608782</v>
+      </c>
+      <c r="J8">
+        <v>0.8395761424608781</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>3.443291333333333</v>
+      </c>
+      <c r="N8">
+        <v>10.329874</v>
+      </c>
+      <c r="O8">
+        <v>0.07497468122035157</v>
+      </c>
+      <c r="P8">
+        <v>0.07497468122035157</v>
+      </c>
+      <c r="Q8">
+        <v>21.63951474138822</v>
+      </c>
+      <c r="R8">
+        <v>194.755632672494</v>
+      </c>
+      <c r="S8">
+        <v>0.06294695364121682</v>
+      </c>
+      <c r="T8">
+        <v>0.06294695364121682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.284543666666667</v>
+      </c>
+      <c r="H9">
+        <v>18.853631</v>
+      </c>
+      <c r="I9">
+        <v>0.8395761424608782</v>
+      </c>
+      <c r="J9">
+        <v>0.8395761424608781</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>39.68460733333333</v>
+      </c>
+      <c r="N9">
+        <v>119.053822</v>
+      </c>
+      <c r="O9">
+        <v>0.8640978924345524</v>
+      </c>
+      <c r="P9">
+        <v>0.8640978924345523</v>
+      </c>
+      <c r="Q9">
+        <v>249.3996476808535</v>
+      </c>
+      <c r="R9">
+        <v>2244.596829127682</v>
+      </c>
+      <c r="S9">
+        <v>0.7254759752387764</v>
+      </c>
+      <c r="T9">
+        <v>0.7254759752387762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.284543666666667</v>
+      </c>
+      <c r="H10">
+        <v>18.853631</v>
+      </c>
+      <c r="I10">
+        <v>0.8395761424608782</v>
+      </c>
+      <c r="J10">
+        <v>0.8395761424608781</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.798156333333333</v>
+      </c>
+      <c r="N10">
+        <v>8.394469000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.06092742634509613</v>
+      </c>
+      <c r="P10">
+        <v>0.06092742634509613</v>
+      </c>
+      <c r="Q10">
+        <v>17.58513566299322</v>
+      </c>
+      <c r="R10">
+        <v>158.266220966939</v>
+      </c>
+      <c r="S10">
+        <v>0.05115321358088509</v>
+      </c>
+      <c r="T10">
+        <v>0.05115321358088508</v>
       </c>
     </row>
   </sheetData>
